--- a/tests/test_project_economic_index/Documentation/test_project_economic_index_2020_tract_config_2020_tract.xlsx
+++ b/tests/test_project_economic_index/Documentation/test_project_economic_index_2020_tract_config_2020_tract.xlsx
@@ -462,8 +462,8 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QEDLESHI' 'QESL' 'PPUNIT' 'QNOHLTH' 'MDHSEVAL' 'QFHH' 'QHISPC' 'QSERV'
- 'QMOHO' 'QEXTRCT' 'PERCAP' 'QRICH']</t>
+          <t>['MDHSEVAL' 'QNOHLTH' 'QFHH' 'PERCAP' 'QSERV' 'PPUNIT' 'QMOHO' 'QESL'
+ 'QEXTRCT' 'QEDLESHI' 'QHISPC' 'QRICH']</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QRENTER' 'QNOAUTO' 'QPOVTY']</t>
+          <t>['PPUNIT' 'QPOVTY' 'QNOAUTO' 'QRENTER']</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
+          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
         </is>
       </c>
     </row>
@@ -562,210 +562,210 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8995698690470394</v>
+        <v>0.6673813288465154</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01588028962563957</v>
+        <v>0.3503444164937919</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07548642904271705</v>
+        <v>0.01361632642406735</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1013281484140936</v>
+        <v>0.1345674190863193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8006485410481731</v>
+        <v>0.7940048950861737</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04307130959121628</v>
+        <v>0.126759527749401</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1407957127957457</v>
+        <v>0.2656162787962952</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1225355629752232</v>
+        <v>-0.1564031925702919</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QFHH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5880307269704808</v>
+        <v>0.6805807452685032</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01395689721722771</v>
+        <v>0.0210248149262259</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.50660799610188</v>
+        <v>-0.03558397954492431</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09293914774346686</v>
+        <v>0.2967004208388719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>PERCAP</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7940048975768303</v>
+        <v>0.7329314318877663</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1267595281188006</v>
+        <v>0.4252583469581543</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2656162800182897</v>
+        <v>0.166184258065044</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1564031936371288</v>
+        <v>0.2004128409414553</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QSERV</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6673813276489604</v>
+        <v>0.7348721538312309</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3503444210822488</v>
+        <v>0.2151077254822288</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01361632247868044</v>
+        <v>0.197502432896062</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1345674190482492</v>
+        <v>0.004719890892999857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QFHH</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6805807466624935</v>
+        <v>0.588030728526873</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0210248177390403</v>
+        <v>-0.01395689747963042</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.03558398123962046</v>
+        <v>-0.506607997469853</v>
       </c>
       <c r="E7" t="n">
-        <v>0.296700424588015</v>
+        <v>0.09293914772773045</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>QMOHO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8856048156026538</v>
+        <v>0.5177784296679964</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1582647162818137</v>
+        <v>-0.02865759067086419</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03978544254990986</v>
+        <v>-0.2435830490906782</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.06052889730176906</v>
+        <v>-0.08935351945734994</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>QSERV</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7348721543746214</v>
+        <v>0.8006485396999253</v>
       </c>
       <c r="C9" t="n">
-        <v>0.215107728562064</v>
+        <v>0.04307130849172042</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1975024314533932</v>
+        <v>0.1407957127362434</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004719891279992184</v>
+        <v>-0.1225355632687389</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>QMOHO</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5177784304046793</v>
+        <v>0.8408368834385976</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.02865759073186356</v>
+        <v>-0.0923572075885717</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.243583050193498</v>
+        <v>0.03707127699037049</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.08935351981708091</v>
+        <v>-0.2111473608273787</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8408368830863654</v>
+        <v>0.8995698676903991</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.09235720504879179</v>
+        <v>-0.01588029060372777</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03707127659157206</v>
+        <v>0.0754864290021524</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2111473588876976</v>
+        <v>-0.1013281489431933</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>PERCAP</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7329314310394388</v>
+        <v>0.8856048168376186</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4252583538906354</v>
+        <v>0.1582647140538798</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1661842535117085</v>
+        <v>0.03978544351512413</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2004128422706356</v>
+        <v>-0.06052889775387129</v>
       </c>
     </row>
     <row r="13">
@@ -775,16 +775,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5572057753248545</v>
+        <v>0.5572057771006161</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4256210981431074</v>
+        <v>0.4256210943138294</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3644640050256193</v>
+        <v>0.3644640094565051</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1424494517334493</v>
+        <v>0.1424494528285866</v>
       </c>
     </row>
     <row r="14">
@@ -794,16 +794,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.04067271206427805</v>
+        <v>-0.0406727135524287</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7700657418050092</v>
+        <v>-0.7700657438200549</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1420715877249298</v>
+        <v>-0.1420715896268082</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5862081069234498</v>
+        <v>0.5862081035501785</v>
       </c>
     </row>
     <row r="15">
@@ -813,16 +813,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03172173857017831</v>
+        <v>0.03172173773221155</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.7087608676407543</v>
+        <v>-0.7087608737600505</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1885173920578724</v>
+        <v>-0.1885173920087392</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1054599651065319</v>
+        <v>0.1054599620476348</v>
       </c>
     </row>
     <row r="16">
@@ -832,35 +832,35 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3574614222156264</v>
+        <v>-0.3574614248449904</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.7507848632207642</v>
+        <v>-0.7507848536091386</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3089965962795234</v>
+        <v>-0.3089966004665173</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.08517150301446039</v>
+        <v>-0.08517150279739806</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>QRENTER</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01147184557967065</v>
+        <v>0.3115534451556795</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4386129645705849</v>
+        <v>0.2878313684099904</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8632518116919117</v>
+        <v>0.5127655617093189</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.07674333183770266</v>
+        <v>0.06135077047365676</v>
       </c>
     </row>
     <row r="18">
@@ -870,73 +870,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.07462049591575612</v>
+        <v>0.07462049528985058</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07808308103694199</v>
+        <v>0.07808307977357337</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6851242541010937</v>
+        <v>0.6851242518352291</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0347900100262627</v>
+        <v>-0.03479001095845437</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>QRENTER</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3115534444809508</v>
+        <v>0.01147184659630594</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2878313718569167</v>
+        <v>0.4386129623080517</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5127655581375896</v>
+        <v>0.8632518064896519</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06135077049750887</v>
+        <v>-0.07674333135640155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1161649451888098</v>
+        <v>0.005610934144334711</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08008650431095542</v>
+        <v>-0.2148136660859271</v>
       </c>
       <c r="D20" t="n">
-        <v>0.023529983592886</v>
+        <v>-0.05598455670606709</v>
       </c>
       <c r="E20" t="n">
-        <v>0.768545730035337</v>
+        <v>0.8104097439896446</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.005610933767846361</v>
+        <v>-0.11616494425252</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2148136643324341</v>
+        <v>0.08008650333124086</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.05598455587579177</v>
+        <v>0.02352998415683373</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8104097474881755</v>
+        <v>0.7685457345428689</v>
       </c>
     </row>
   </sheetData>
@@ -1055,28 +1055,28 @@
         <v>1.591531530604787</v>
       </c>
       <c r="H2" t="n">
-        <v>6.905651739796923</v>
+        <v>6.905651736717143</v>
       </c>
       <c r="I2" t="n">
-        <v>2.603773100681809</v>
+        <v>2.603773112399371</v>
       </c>
       <c r="J2" t="n">
-        <v>2.267684931038953</v>
+        <v>2.267684942629485</v>
       </c>
       <c r="K2" t="n">
-        <v>1.923767885283962</v>
+        <v>1.923767884583196</v>
       </c>
       <c r="L2" t="n">
-        <v>6.728907190410019</v>
+        <v>6.728907189911903</v>
       </c>
       <c r="M2" t="n">
-        <v>2.577126585935262</v>
+        <v>2.577126565506789</v>
       </c>
       <c r="N2" t="n">
-        <v>2.248342640271162</v>
+        <v>2.248342640659486</v>
       </c>
       <c r="O2" t="n">
-        <v>1.901538203923247</v>
+        <v>1.901538198745437</v>
       </c>
     </row>
     <row r="3">
@@ -1104,28 +1104,28 @@
         <v>0.05894561224462173</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3288405590379487</v>
+        <v>0.3288405588912925</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1239891952705623</v>
+        <v>0.1239891958285415</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1079849967161406</v>
+        <v>0.1079849972680707</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09160799453733151</v>
+        <v>0.0916079945039617</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3364453595205009</v>
+        <v>0.3364453594955951</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1288563292967631</v>
+        <v>0.1288563282753394</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1124171320135581</v>
+        <v>0.1124171320329743</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09507691019616234</v>
+        <v>0.09507690993727184</v>
       </c>
     </row>
     <row r="4">
@@ -1153,28 +1153,28 @@
         <v>0.617250871637384</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3288405590379487</v>
+        <v>0.3288405588912925</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4528297543085111</v>
+        <v>0.452829754719834</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5608147510246517</v>
+        <v>0.5608147519879048</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6524227455619832</v>
+        <v>0.6524227464918665</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3364453595205009</v>
+        <v>0.3364453594955951</v>
       </c>
       <c r="M4" t="n">
-        <v>0.465301688817264</v>
+        <v>0.4653016877709346</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5777188208308222</v>
+        <v>0.5777188198039088</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6727957310269845</v>
+        <v>0.6727957297411806</v>
       </c>
     </row>
     <row r="5">
@@ -1202,28 +1202,28 @@
         <v>0.09549700932500338</v>
       </c>
       <c r="H5" t="n">
-        <v>0.504029881353527</v>
+        <v>0.5040298804103577</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1900442559888997</v>
+        <v>0.1900442565732756</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1655138442837774</v>
+        <v>0.1655138448938443</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1404120183737958</v>
+        <v>0.1404120181225223</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5000705920159989</v>
+        <v>0.5000705929346833</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1915237022982759</v>
+        <v>0.1915237011461257</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1670895441651506</v>
+        <v>0.1670895445133403</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1413161615205745</v>
+        <v>0.1413161614058508</v>
       </c>
     </row>
   </sheetData>
@@ -1274,16 +1274,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.728907190410019</v>
+        <v>6.728907189911903</v>
       </c>
       <c r="C2" t="n">
-        <v>2.577126585935262</v>
+        <v>2.577126565506789</v>
       </c>
       <c r="D2" t="n">
-        <v>2.248342640271162</v>
+        <v>2.248342640659486</v>
       </c>
       <c r="E2" t="n">
-        <v>1.901538203923247</v>
+        <v>1.901538198745437</v>
       </c>
     </row>
     <row r="3">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3364453595205009</v>
+        <v>0.3364453594955951</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1288563292967631</v>
+        <v>0.1288563282753394</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1124171320135581</v>
+        <v>0.1124171320329743</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09507691019616234</v>
+        <v>0.09507690993727184</v>
       </c>
     </row>
     <row r="4">
@@ -1312,16 +1312,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3364453595205009</v>
+        <v>0.3364453594955951</v>
       </c>
       <c r="C4" t="n">
-        <v>0.465301688817264</v>
+        <v>0.4653016877709346</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5777188208308222</v>
+        <v>0.5777188198039088</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6727957310269845</v>
+        <v>0.6727957297411806</v>
       </c>
     </row>
     <row r="5">
@@ -1331,16 +1331,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5000705920159989</v>
+        <v>0.5000705929346833</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1915237022982759</v>
+        <v>0.1915237011461257</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1670895441651506</v>
+        <v>0.1670895445133403</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1413161615205745</v>
+        <v>0.1413161614058508</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QEDLESHI', 'QESL', 'PPUNIT', 'QNOHLTH', 'MDHSEVAL', 'QFHH', 'QHISPC', 'QSERV', 'QMOHO', 'QEXTRCT', 'PERCAP', 'QRICH', 'QAGEDEP', 'QSSBEN', 'MEDAGE', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'QFEMLBR', 'QFEMALE']]</t>
+          <t>[['MDHSEVAL', 'QNOHLTH', 'QFHH', 'PERCAP', 'QSERV', 'PPUNIT', 'QMOHO', 'QESL', 'QEXTRCT', 'QEDLESHI', 'QHISPC', 'QRICH', 'QAGEDEP', 'QSSBEN', 'MEDAGE', 'QPOVTY', 'QNOAUTO', 'QRENTER', 'QFEMALE', 'QFEMLBR']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/tests/test_project_economic_index/Documentation/test_project_economic_index_2020_tract_config_2020_tract.xlsx
+++ b/tests/test_project_economic_index/Documentation/test_project_economic_index_2020_tract_config_2020_tract.xlsx
@@ -462,8 +462,8 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QSERV' 'QMOHO' 'QEDLESHI' 'QEXTRCT' 'QFHH' 'MDHSEVAL' 'QNOHLTH' 'PERCAP'
- 'QHISPC' 'QESL' 'PPUNIT' 'QRICH']</t>
+          <t>['PERCAP' 'QHISPC' 'QFHH' 'QSERV' 'QEDLESHI' 'PPUNIT' 'QNOHLTH' 'QMOHO'
+ 'QEXTRCT' 'QESL' 'MDHSEVAL' 'QRICH']</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['MEDAGE' 'QAGEDEP' 'QSSBEN']</t>
+          <t>['QSSBEN' 'QAGEDEP' 'MEDAGE']</t>
         </is>
       </c>
     </row>
@@ -562,115 +562,115 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QSERV</t>
+          <t>PERCAP</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7348721529352046</v>
+        <v>0.7329314324963954</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2151077283855795</v>
+        <v>0.4252583530410513</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1975024329050171</v>
+        <v>0.166184254764721</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004719890745881486</v>
+        <v>0.2004128460875132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QMOHO</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5177784302867454</v>
+        <v>0.8856048149776928</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.02865759016929129</v>
+        <v>0.158264713759833</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2435830478241964</v>
+        <v>0.03978544436548435</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.08935351928861951</v>
+        <v>-0.06052889727239415</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QFHH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8995698666516315</v>
+        <v>0.6805807445456359</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01588028856821033</v>
+        <v>0.02102481812267305</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07548643123634467</v>
+        <v>-0.03558398189116229</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1013281483967853</v>
+        <v>0.2967004205832816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QSERV</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8408368808388813</v>
+        <v>0.734872153977326</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.09235720327080865</v>
+        <v>0.2151077267106434</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03707127842205581</v>
+        <v>0.1975024311515998</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2111473577470383</v>
+        <v>0.004719891485598314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QFHH</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6805807444717881</v>
+        <v>0.8995698684183187</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0210248173062439</v>
+        <v>-0.01588029017680546</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.03558397788918861</v>
+        <v>0.07548642786604873</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2967004198657199</v>
+        <v>-0.101328149965413</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.667381328007484</v>
+        <v>0.5880307257745836</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3503444240257843</v>
+        <v>-0.01395689274250703</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01361632212504986</v>
+        <v>-0.5066079971575504</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1345674200013424</v>
+        <v>0.09293914724272281</v>
       </c>
     </row>
     <row r="8">
@@ -680,54 +680,54 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7940048949538786</v>
+        <v>0.7940048949440573</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1267595297251846</v>
+        <v>0.1267595272894823</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2656162796242643</v>
+        <v>0.2656162775756969</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1564031924194186</v>
+        <v>-0.1564031920183579</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>PERCAP</t>
+          <t>QMOHO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7329314303159443</v>
+        <v>0.5177784296928188</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4252583545871216</v>
+        <v>-0.02865758886548283</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1661842545391273</v>
+        <v>-0.2435830506385485</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2004128419357411</v>
+        <v>-0.08935352002352073</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8856048160464572</v>
+        <v>0.8408368809560381</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1582647158780482</v>
+        <v>-0.09235720382786718</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03978544523978161</v>
+        <v>0.03707127528429694</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.06052889781507236</v>
+        <v>-0.2111473588173409</v>
       </c>
     </row>
     <row r="11">
@@ -737,35 +737,35 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8006485401274094</v>
+        <v>0.8006485427188236</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04307130908297624</v>
+        <v>0.04307130456994273</v>
       </c>
       <c r="D11" t="n">
-        <v>0.140795715305876</v>
+        <v>0.1407957155957293</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.122535563245906</v>
+        <v>-0.122535564832249</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5880307266834481</v>
+        <v>0.6673813290167796</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01395690024541623</v>
+        <v>0.3503444204470025</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5066079869018363</v>
+        <v>0.01361632420519378</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09293914599013721</v>
+        <v>0.1345674225167171</v>
       </c>
     </row>
     <row r="13">
@@ -775,35 +775,35 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5572057738038636</v>
+        <v>0.5572057761958529</v>
       </c>
       <c r="C13" t="n">
-        <v>0.425621099206058</v>
+        <v>0.4256210925541805</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3644640032678481</v>
+        <v>0.3644640079258271</v>
       </c>
       <c r="E13" t="n">
-        <v>0.142449451349592</v>
+        <v>0.1424494538082973</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>MEDAGE</t>
+          <t>QSSBEN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.3574614219897446</v>
+        <v>0.03172173593632541</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7507848507284554</v>
+        <v>-0.7087608552230775</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3089966011005817</v>
+        <v>-0.1885174021615671</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.08517150015640852</v>
+        <v>0.1054599616294259</v>
       </c>
     </row>
     <row r="15">
@@ -813,35 +813,35 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.04067271107755571</v>
+        <v>-0.04067270899963836</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.7700657429264464</v>
+        <v>-0.7700657661477784</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1420715886795794</v>
+        <v>-0.1420715818467115</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5862081059844828</v>
+        <v>0.5862081183549211</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>QSSBEN</t>
+          <t>MEDAGE</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03172173852524084</v>
+        <v>-0.3574614239075182</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.7087608636777636</v>
+        <v>-0.7507848534744125</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1885173946887581</v>
+        <v>-0.3089966038863287</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1054599638220967</v>
+        <v>-0.08517150572341514</v>
       </c>
     </row>
     <row r="17">
@@ -851,16 +851,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0746204942072517</v>
+        <v>0.07462049642781375</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07808308168740091</v>
+        <v>0.07808308462994046</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6851242506368364</v>
+        <v>0.6851242394518238</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.034790010235563</v>
+        <v>-0.03479001047493224</v>
       </c>
     </row>
     <row r="18">
@@ -870,16 +870,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01147184295221733</v>
+        <v>0.01147184647409244</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4386129634858324</v>
+        <v>0.4386129543596818</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8632518155110789</v>
+        <v>0.8632518268053981</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.07674333134372419</v>
+        <v>-0.07674333081309365</v>
       </c>
     </row>
     <row r="19">
@@ -889,16 +889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3115534432694262</v>
+        <v>0.3115534450502101</v>
       </c>
       <c r="C19" t="n">
-        <v>0.287831370567396</v>
+        <v>0.2878313711239852</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5127655590270538</v>
+        <v>0.5127655550243656</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06135076991966522</v>
+        <v>0.06135077064034334</v>
       </c>
     </row>
     <row r="20">
@@ -908,16 +908,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005610934496694881</v>
+        <v>0.005610933253486094</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2148136651995304</v>
+        <v>-0.2148136640956398</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.05598455553792307</v>
+        <v>-0.05598455806814127</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8104097485862144</v>
+        <v>0.8104097354449501</v>
       </c>
     </row>
     <row r="21">
@@ -927,16 +927,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.1161649444569863</v>
+        <v>-0.1161649451878785</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08008650299279677</v>
+        <v>0.0800865038310922</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02352998331322395</v>
+        <v>0.02352998318026213</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7685457245825874</v>
+        <v>0.7685457288956727</v>
       </c>
     </row>
   </sheetData>
@@ -1037,46 +1037,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.537367460594848</v>
+        <v>6.537367406499635</v>
       </c>
       <c r="C2" t="n">
-        <v>2.56947170648152</v>
+        <v>2.569471696643775</v>
       </c>
       <c r="D2" t="n">
-        <v>2.401642946341259</v>
+        <v>2.401643024931027</v>
       </c>
       <c r="E2" t="n">
-        <v>1.916054431259893</v>
+        <v>1.916054492737229</v>
       </c>
       <c r="F2" t="n">
-        <v>1.649705458927061</v>
+        <v>1.649705604228448</v>
       </c>
       <c r="G2" t="n">
-        <v>1.591531530604787</v>
+        <v>1.591531607183799</v>
       </c>
       <c r="H2" t="n">
-        <v>6.905651726723177</v>
+        <v>6.90565173512608</v>
       </c>
       <c r="I2" t="n">
-        <v>2.603773100530228</v>
+        <v>2.603773109759239</v>
       </c>
       <c r="J2" t="n">
-        <v>2.267684922487365</v>
+        <v>2.267684929879158</v>
       </c>
       <c r="K2" t="n">
-        <v>1.923767876085527</v>
+        <v>1.923767879048367</v>
       </c>
       <c r="L2" t="n">
-        <v>6.728907168156384</v>
+        <v>6.728907183645724</v>
       </c>
       <c r="M2" t="n">
-        <v>2.57712656524732</v>
+        <v>2.57712657360592</v>
       </c>
       <c r="N2" t="n">
-        <v>2.248342637309916</v>
+        <v>2.248342653316885</v>
       </c>
       <c r="O2" t="n">
-        <v>1.901538191378495</v>
+        <v>1.90153819652728</v>
       </c>
     </row>
     <row r="3">
@@ -1086,46 +1086,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2421247207627722</v>
+        <v>0.2421247187592457</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09516561875857484</v>
+        <v>0.09516561839421388</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08894973875337994</v>
+        <v>0.08894974166411211</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07096497893555159</v>
+        <v>0.07096498121248997</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06110020218248374</v>
+        <v>0.06110020756401659</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05894561224462173</v>
+        <v>0.05894561508088143</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3288405584153893</v>
+        <v>0.3288405588155276</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1239891952633442</v>
+        <v>0.1239891957028209</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1079849963089222</v>
+        <v>0.1079849966609123</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09160799409931082</v>
+        <v>0.09160799424039845</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3364453584078192</v>
+        <v>0.3364453591822862</v>
       </c>
       <c r="M3" t="n">
-        <v>0.128856328262366</v>
+        <v>0.128856328680296</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1124171318654958</v>
+        <v>0.1124171326658442</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09507690956892474</v>
+        <v>0.09507690982636401</v>
       </c>
     </row>
     <row r="4">
@@ -1135,46 +1135,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2421247207627722</v>
+        <v>0.2421247187592457</v>
       </c>
       <c r="C4" t="n">
-        <v>0.337290339521347</v>
+        <v>0.3372903371534596</v>
       </c>
       <c r="D4" t="n">
-        <v>0.426240078274727</v>
+        <v>0.4262400788175717</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4972050572102786</v>
+        <v>0.4972050600300617</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5583052593927623</v>
+        <v>0.5583052675940783</v>
       </c>
       <c r="G4" t="n">
-        <v>0.617250871637384</v>
+        <v>0.6172508826749598</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3288405584153893</v>
+        <v>0.3288405588155276</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4528297536787335</v>
+        <v>0.4528297545183485</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5608147499876557</v>
+        <v>0.5608147511792607</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6524227440869665</v>
+        <v>0.6524227454196592</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3364453584078192</v>
+        <v>0.3364453591822862</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4653016866701852</v>
+        <v>0.4653016878625822</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5777188185356811</v>
+        <v>0.5777188205284264</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6727957281046059</v>
+        <v>0.6727957303547903</v>
       </c>
     </row>
     <row r="5">
@@ -1184,46 +1184,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3922630682083719</v>
+        <v>0.3922630579481034</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1541765643945202</v>
+        <v>0.1541765610472646</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1441062991412594</v>
+        <v>0.1441063012800136</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1149694268511966</v>
+        <v>0.1149694284841706</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09898763207964854</v>
+        <v>0.09898763902811875</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09549700932500338</v>
+        <v>0.0954970122123289</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5040298815388257</v>
+        <v>0.504029881122564</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1900442564074938</v>
+        <v>0.190044256692901</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1655138440338125</v>
+        <v>0.1655138442352326</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1404120180198679</v>
+        <v>0.1404120179493026</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5000705925343046</v>
+        <v>0.5000705920129219</v>
       </c>
       <c r="M5" t="n">
-        <v>0.191523701592724</v>
+        <v>0.1915237015733516</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1670895446708563</v>
+        <v>0.1670895453016066</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1413161612021149</v>
+        <v>0.14131616111212</v>
       </c>
     </row>
   </sheetData>
@@ -1274,16 +1274,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.728907168156384</v>
+        <v>6.728907183645724</v>
       </c>
       <c r="C2" t="n">
-        <v>2.57712656524732</v>
+        <v>2.57712657360592</v>
       </c>
       <c r="D2" t="n">
-        <v>2.248342637309916</v>
+        <v>2.248342653316885</v>
       </c>
       <c r="E2" t="n">
-        <v>1.901538191378495</v>
+        <v>1.90153819652728</v>
       </c>
     </row>
     <row r="3">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3364453584078192</v>
+        <v>0.3364453591822862</v>
       </c>
       <c r="C3" t="n">
-        <v>0.128856328262366</v>
+        <v>0.128856328680296</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1124171318654958</v>
+        <v>0.1124171326658442</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09507690956892474</v>
+        <v>0.09507690982636401</v>
       </c>
     </row>
     <row r="4">
@@ -1312,16 +1312,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3364453584078192</v>
+        <v>0.3364453591822862</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4653016866701852</v>
+        <v>0.4653016878625822</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5777188185356811</v>
+        <v>0.5777188205284264</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6727957281046059</v>
+        <v>0.6727957303547903</v>
       </c>
     </row>
     <row r="5">
@@ -1331,16 +1331,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5000705925343046</v>
+        <v>0.5000705920129219</v>
       </c>
       <c r="C5" t="n">
-        <v>0.191523701592724</v>
+        <v>0.1915237015733516</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1670895446708563</v>
+        <v>0.1670895453016066</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1413161612021149</v>
+        <v>0.14131616111212</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QSERV', 'QMOHO', 'QEDLESHI', 'QEXTRCT', 'QFHH', 'MDHSEVAL', 'QNOHLTH', 'PERCAP', 'QHISPC', 'QESL', 'PPUNIT', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QNOAUTO', 'QRENTER', 'QPOVTY', 'QFEMALE', 'QFEMLBR']]</t>
+          <t>[['PERCAP', 'QHISPC', 'QFHH', 'QSERV', 'QEDLESHI', 'PPUNIT', 'QNOHLTH', 'QMOHO', 'QEXTRCT', 'QESL', 'MDHSEVAL', 'QRICH', 'QSSBEN', 'QAGEDEP', 'MEDAGE', 'QNOAUTO', 'QRENTER', 'QPOVTY', 'QFEMALE', 'QFEMLBR']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
